--- a/Tbricks/FuturesNotFound.xlsx
+++ b/Tbricks/FuturesNotFound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\PrimoRepository\Tbricks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38849F6-D388-475C-ADF9-FE6D64D9EF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D744FC7-01C2-4981-9CD5-3A0D43760592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="195" windowWidth="17655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="94">
   <si>
     <t>CURRENCY</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>TICKER</t>
+  </si>
+  <si>
+    <t>STRATEGIC</t>
+  </si>
+  <si>
+    <t>TP-DIREZIONALE</t>
   </si>
 </sst>
 </file>
@@ -660,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -927,28 +933,28 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>-110</v>
+        <v>-1</v>
       </c>
       <c r="G2">
-        <v>-192699.375</v>
+        <v>-2416.7249999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-10561.763232516099</v>
+        <v>-132.48095989079999</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
         <v>44092</v>
@@ -966,10 +972,10 @@
         <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2">
         <v>44074</v>
@@ -984,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>64</v>
@@ -996,7 +1002,7 @@
         <v>66</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>74</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="3" spans="1:62">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1037,31 +1043,31 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>-110</v>
       </c>
       <c r="G3">
-        <v>75562.260982709005</v>
+        <v>-192699.375</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6809.8040715806001</v>
+        <v>-10561.763232516099</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2">
-        <v>44103</v>
+        <v>44092</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>32</v>
@@ -1070,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W3">
         <v>50</v>
@@ -1094,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>64</v>
@@ -1106,7 +1112,7 @@
         <v>66</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>74</v>
@@ -1147,22 +1153,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>-45</v>
       </c>
       <c r="G4">
-        <v>-2416.7249999999999</v>
+        <v>-108752.625</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-132.48095989079999</v>
+        <v>-5961.6431950868</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1257,31 +1263,31 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="G5">
-        <v>810.75</v>
+        <v>-17518.125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.547516694700001</v>
+        <v>-960.16029386510002</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="2">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>32</v>
@@ -1290,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W5">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="X5" s="2">
         <v>44074</v>
@@ -1314,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>64</v>
@@ -1326,7 +1332,7 @@
         <v>66</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>74</v>
@@ -1356,9 +1362,669 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:62">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-4833.45</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-264.96191978159999</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44092</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
+      </c>
+      <c r="X6" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6">
+        <v>30200831</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>810.75</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>35.547516694700001</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44090</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7">
+        <v>1000</v>
+      </c>
+      <c r="X7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7">
+        <v>30200831</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>75562.260982709005</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6809.8040715806001</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44103</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8">
+        <v>50</v>
+      </c>
+      <c r="X8" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8">
+        <v>30200831</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-2416.7249999999999</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-132.48095989079999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44092</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9">
+        <v>20</v>
+      </c>
+      <c r="X9" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9">
+        <v>30200831</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>8759.0625</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>480.08014693259997</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44092</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10">
+        <v>50</v>
+      </c>
+      <c r="X10" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10">
+        <v>30200831</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>24167.25</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1324.8095989082001</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44092</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11">
+        <v>20</v>
+      </c>
+      <c r="X11" s="2">
+        <v>44074</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11">
+        <v>30200831</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BJ11">
-    <sortCondition ref="AP2:AP11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BJ6">
+    <sortCondition ref="AP2:AP6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
